--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9570683333333334</v>
+        <v>1.186041333333334</v>
       </c>
       <c r="H2">
-        <v>2.871205</v>
+        <v>3.558124</v>
       </c>
       <c r="I2">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="J2">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N2">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O2">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P2">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q2">
-        <v>0.1377399984422222</v>
+        <v>0.6884309710324445</v>
       </c>
       <c r="R2">
-        <v>1.23965998598</v>
+        <v>6.195878739292001</v>
       </c>
       <c r="S2">
-        <v>0.0001808770657533112</v>
+        <v>0.0007304728523033658</v>
       </c>
       <c r="T2">
-        <v>0.0001810314180819529</v>
+        <v>0.0007317209455370708</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9570683333333334</v>
+        <v>1.186041333333334</v>
       </c>
       <c r="H3">
-        <v>2.871205</v>
+        <v>3.558124</v>
       </c>
       <c r="I3">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="J3">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.340352</v>
       </c>
       <c r="O3">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P3">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q3">
-        <v>0.1085800404622222</v>
+        <v>0.1345571799608889</v>
       </c>
       <c r="R3">
-        <v>0.97722036416</v>
+        <v>1.211014619648</v>
       </c>
       <c r="S3">
-        <v>0.0001425848652555401</v>
+        <v>0.0001427744700336783</v>
       </c>
       <c r="T3">
-        <v>0.0001427065407476187</v>
+        <v>0.0001430184159235672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9570683333333334</v>
+        <v>1.186041333333334</v>
       </c>
       <c r="H4">
-        <v>2.871205</v>
+        <v>3.558124</v>
       </c>
       <c r="I4">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="J4">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N4">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O4">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P4">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q4">
-        <v>95.05161350555889</v>
+        <v>161.4202689548489</v>
       </c>
       <c r="R4">
-        <v>855.4645215500301</v>
+        <v>1452.78242059364</v>
       </c>
       <c r="S4">
-        <v>0.1248196394688874</v>
+        <v>0.1712780645330204</v>
       </c>
       <c r="T4">
-        <v>0.12492615491866</v>
+        <v>0.1715707119500348</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9570683333333334</v>
+        <v>1.186041333333334</v>
       </c>
       <c r="H5">
-        <v>2.871205</v>
+        <v>3.558124</v>
       </c>
       <c r="I5">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="J5">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N5">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O5">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P5">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q5">
-        <v>0.5848816857300001</v>
+        <v>1.448936883197333</v>
       </c>
       <c r="R5">
-        <v>3.509290114380001</v>
+        <v>8.693621299184001</v>
       </c>
       <c r="S5">
-        <v>0.0007680534653996611</v>
+        <v>0.001537422199773206</v>
       </c>
       <c r="T5">
-        <v>0.0005124725917203556</v>
+        <v>0.001026699369830959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9570683333333334</v>
+        <v>1.186041333333334</v>
       </c>
       <c r="H6">
-        <v>2.871205</v>
+        <v>3.558124</v>
       </c>
       <c r="I6">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="J6">
-        <v>0.3002693237122938</v>
+        <v>0.3004487152423012</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N6">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O6">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P6">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q6">
-        <v>132.7757822991694</v>
+        <v>119.4643944146151</v>
       </c>
       <c r="R6">
-        <v>1194.982040692525</v>
+        <v>1075.179549731536</v>
       </c>
       <c r="S6">
-        <v>0.1743581688469978</v>
+        <v>0.1267599811871705</v>
       </c>
       <c r="T6">
-        <v>0.1745069582430838</v>
+        <v>0.1269765645609748</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.923783</v>
       </c>
       <c r="I7">
-        <v>0.4103474561390758</v>
+        <v>0.331325035675986</v>
       </c>
       <c r="J7">
-        <v>0.4103474561390758</v>
+        <v>0.3313250356759861</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N7">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O7">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P7">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q7">
-        <v>0.1882352058831111</v>
+        <v>0.7591792025265556</v>
       </c>
       <c r="R7">
-        <v>1.694116852948</v>
+        <v>6.832612822739</v>
       </c>
       <c r="S7">
-        <v>0.0002471862356372061</v>
+        <v>0.0008055416168265797</v>
       </c>
       <c r="T7">
-        <v>0.000247397173220254</v>
+        <v>0.0008069179733034274</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.923783</v>
       </c>
       <c r="I8">
-        <v>0.4103474561390758</v>
+        <v>0.331325035675986</v>
       </c>
       <c r="J8">
-        <v>0.4103474561390758</v>
+        <v>0.3313250356759861</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.340352</v>
       </c>
       <c r="O8">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P8">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q8">
         <v>0.1483852657351111</v>
@@ -948,10 +948,10 @@
         <v>1.335467391616</v>
       </c>
       <c r="S8">
-        <v>0.0001948561911625881</v>
+        <v>0.0001574470249918655</v>
       </c>
       <c r="T8">
-        <v>0.0001950224726462629</v>
+        <v>0.0001577160405561533</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.923783</v>
       </c>
       <c r="I9">
-        <v>0.4103474561390758</v>
+        <v>0.331325035675986</v>
       </c>
       <c r="J9">
-        <v>0.4103474561390758</v>
+        <v>0.3313250356759861</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N9">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O9">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P9">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q9">
-        <v>129.8973445628864</v>
+        <v>178.0090033906811</v>
       </c>
       <c r="R9">
-        <v>1169.076101065978</v>
+        <v>1602.08103051613</v>
       </c>
       <c r="S9">
-        <v>0.1705782691985245</v>
+        <v>0.1888798585680455</v>
       </c>
       <c r="T9">
-        <v>0.1707238329987599</v>
+        <v>0.1892025805866922</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.923783</v>
       </c>
       <c r="I10">
-        <v>0.4103474561390758</v>
+        <v>0.331325035675986</v>
       </c>
       <c r="J10">
-        <v>0.4103474561390758</v>
+        <v>0.3313250356759861</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N10">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O10">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P10">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q10">
-        <v>0.799298139798</v>
+        <v>1.597840297404666</v>
       </c>
       <c r="R10">
-        <v>4.795788838788</v>
+        <v>9.587041784427999</v>
       </c>
       <c r="S10">
-        <v>0.001049620326875398</v>
+        <v>0.001695419016114309</v>
       </c>
       <c r="T10">
-        <v>0.0007003440170096777</v>
+        <v>0.001132210550687225</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.923783</v>
       </c>
       <c r="I11">
-        <v>0.4103474561390758</v>
+        <v>0.331325035675986</v>
       </c>
       <c r="J11">
-        <v>0.4103474561390758</v>
+        <v>0.3313250356759861</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N11">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O11">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P11">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q11">
-        <v>181.4511180487572</v>
+        <v>131.7414345057569</v>
       </c>
       <c r="R11">
-        <v>1633.060062438815</v>
+        <v>1185.672910551812</v>
       </c>
       <c r="S11">
-        <v>0.2382775241868761</v>
+        <v>0.1397867694500078</v>
       </c>
       <c r="T11">
-        <v>0.2384808594774397</v>
+        <v>0.1400256105247471</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5236893333333333</v>
+        <v>0.6500023333333333</v>
       </c>
       <c r="H12">
-        <v>1.571068</v>
+        <v>1.950007</v>
       </c>
       <c r="I12">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="J12">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N12">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O12">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P12">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q12">
-        <v>0.07536867060088889</v>
+        <v>0.3772901710367778</v>
       </c>
       <c r="R12">
-        <v>0.678318035408</v>
+        <v>3.395611539331</v>
       </c>
       <c r="S12">
-        <v>9.89724418628844E-05</v>
+        <v>0.0004003309539806734</v>
       </c>
       <c r="T12">
-        <v>9.905690048017386E-05</v>
+        <v>0.0004010149634593698</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5236893333333333</v>
+        <v>0.6500023333333333</v>
       </c>
       <c r="H13">
-        <v>1.571068</v>
+        <v>1.950007</v>
       </c>
       <c r="I13">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="J13">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.340352</v>
       </c>
       <c r="O13">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P13">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q13">
-        <v>0.05941290399288889</v>
+        <v>0.07374319805155555</v>
       </c>
       <c r="R13">
-        <v>0.534716135936</v>
+        <v>0.663688782464</v>
       </c>
       <c r="S13">
-        <v>7.801968827976086E-05</v>
+        <v>7.824663108620243E-05</v>
       </c>
       <c r="T13">
-        <v>7.808626676231051E-05</v>
+        <v>7.838032406399204E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5236893333333333</v>
+        <v>0.6500023333333333</v>
       </c>
       <c r="H14">
-        <v>1.571068</v>
+        <v>1.950007</v>
       </c>
       <c r="I14">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="J14">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N14">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O14">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P14">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q14">
-        <v>52.01040968058756</v>
+        <v>88.46534140008556</v>
       </c>
       <c r="R14">
-        <v>468.093687125288</v>
+        <v>796.1880726007701</v>
       </c>
       <c r="S14">
-        <v>0.06829889936145486</v>
+        <v>0.09386784293797562</v>
       </c>
       <c r="T14">
-        <v>0.06835718256124144</v>
+        <v>0.09402822647483662</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5236893333333333</v>
+        <v>0.6500023333333333</v>
       </c>
       <c r="H15">
-        <v>1.571068</v>
+        <v>1.950007</v>
       </c>
       <c r="I15">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="J15">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,28 +1364,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N15">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O15">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P15">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q15">
-        <v>0.320035978008</v>
+        <v>0.7940805505353333</v>
       </c>
       <c r="R15">
-        <v>1.920215868048</v>
+        <v>4.764483303212</v>
       </c>
       <c r="S15">
-        <v>0.0004202640430685076</v>
+        <v>0.0008425743598348877</v>
       </c>
       <c r="T15">
-        <v>0.0002804151182966439</v>
+        <v>0.0005626759938849684</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5236893333333333</v>
+        <v>0.6500023333333333</v>
       </c>
       <c r="H16">
-        <v>1.571068</v>
+        <v>1.950007</v>
       </c>
       <c r="I16">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="J16">
-        <v>0.164301582738267</v>
+        <v>0.1646589882374797</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N16">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O16">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P16">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q16">
-        <v>72.65234727063778</v>
+        <v>65.47169389241645</v>
       </c>
       <c r="R16">
-        <v>653.8711254357399</v>
+        <v>589.245245031748</v>
       </c>
       <c r="S16">
-        <v>0.09540542720360097</v>
+        <v>0.06946999335460227</v>
       </c>
       <c r="T16">
-        <v>0.0954868418914864</v>
+        <v>0.0695886904812347</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.398681</v>
+        <v>0.8035953333333333</v>
       </c>
       <c r="H17">
-        <v>1.196043</v>
+        <v>2.410786</v>
       </c>
       <c r="I17">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="J17">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N17">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O17">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P17">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q17">
-        <v>0.05737763794533333</v>
+        <v>0.4664423575264445</v>
       </c>
       <c r="R17">
-        <v>0.5163987415079999</v>
+        <v>4.197981217738</v>
       </c>
       <c r="S17">
-        <v>7.534702271512745E-05</v>
+        <v>0.0004949275870410986</v>
       </c>
       <c r="T17">
-        <v>7.541132046544681E-05</v>
+        <v>0.0004957732252747607</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.398681</v>
+        <v>0.8035953333333333</v>
       </c>
       <c r="H18">
-        <v>1.196043</v>
+        <v>2.410786</v>
       </c>
       <c r="I18">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="J18">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.340352</v>
       </c>
       <c r="O18">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P18">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q18">
-        <v>0.04523062523733333</v>
+        <v>0.09116842629688889</v>
       </c>
       <c r="R18">
-        <v>0.407075627136</v>
+        <v>0.8205158366719999</v>
       </c>
       <c r="S18">
-        <v>5.939583902745778E-05</v>
+        <v>9.67360028809033E-05</v>
       </c>
       <c r="T18">
-        <v>5.944652475716783E-05</v>
+        <v>9.690128698457753E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.398681</v>
+        <v>0.8035953333333333</v>
       </c>
       <c r="H19">
-        <v>1.196043</v>
+        <v>2.410786</v>
       </c>
       <c r="I19">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="J19">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N19">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O19">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P19">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q19">
-        <v>39.59515846901533</v>
+        <v>109.3693543318289</v>
       </c>
       <c r="R19">
-        <v>356.356426221138</v>
+        <v>984.3241889864599</v>
       </c>
       <c r="S19">
-        <v>0.05199547090830732</v>
+        <v>0.1160484457774103</v>
       </c>
       <c r="T19">
-        <v>0.05203984149769132</v>
+        <v>0.1162467273144996</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>26</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.398681</v>
+        <v>0.8035953333333333</v>
       </c>
       <c r="H20">
-        <v>1.196043</v>
+        <v>2.410786</v>
       </c>
       <c r="I20">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="J20">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,28 +1674,28 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N20">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O20">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P20">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q20">
-        <v>0.243641135358</v>
+        <v>0.9817186677293332</v>
       </c>
       <c r="R20">
-        <v>1.461846812148</v>
+        <v>5.890312006375999</v>
       </c>
       <c r="S20">
-        <v>0.000319944055167432</v>
+        <v>0.00104167137382015</v>
       </c>
       <c r="T20">
-        <v>0.0002134780539943993</v>
+        <v>0.0006956341226436454</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.398681</v>
+        <v>0.8035953333333333</v>
       </c>
       <c r="H21">
-        <v>1.196043</v>
+        <v>2.410786</v>
       </c>
       <c r="I21">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="J21">
-        <v>0.1250816374103636</v>
+        <v>0.2035672608442332</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N21">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O21">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P21">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q21">
-        <v>55.30972013090166</v>
+        <v>80.94239817196711</v>
       </c>
       <c r="R21">
-        <v>497.7874811781149</v>
+        <v>728.481583547704</v>
       </c>
       <c r="S21">
-        <v>0.07263147958514624</v>
+        <v>0.08588548010308074</v>
       </c>
       <c r="T21">
-        <v>0.07269346001345522</v>
+        <v>0.08603222489483056</v>
       </c>
     </row>
   </sheetData>
